--- a/ControlCambios/07_Pruebas/Pruebas_005.xlsx
+++ b/ControlCambios/07_Pruebas/Pruebas_005.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t xml:space="preserve">ID: </t>
   </si>
   <si>
-    <t>Pruebas_001</t>
+    <t>Pruebas_005</t>
   </si>
   <si>
     <t>Fecha:</t>
   </si>
   <si>
+    <t>14/3/2024</t>
+  </si>
+  <si>
     <t>ID Documento base:</t>
   </si>
   <si>
-    <t>Imp_001</t>
+    <t>Imp_005</t>
   </si>
   <si>
     <t>Responsable de Pruebas</t>
@@ -1271,8 +1274,8 @@
       <c r="I4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="8">
-        <v>45323</v>
+      <c r="J4" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="K4" s="9"/>
     </row>
@@ -1281,13 +1284,13 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
@@ -1324,7 +1327,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -1352,12 +1355,12 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
@@ -1369,12 +1372,12 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
@@ -1386,12 +1389,12 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
@@ -1416,7 +1419,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
@@ -1444,7 +1447,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -1472,12 +1475,12 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="52"/>
       <c r="F18" s="53"/>
       <c r="G18" s="54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -1515,12 +1518,12 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="53"/>
       <c r="G21" s="62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
@@ -1558,7 +1561,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="64"/>
@@ -1586,12 +1589,12 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" s="52"/>
       <c r="F26" s="53"/>
       <c r="G26" s="62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
@@ -1630,11 +1633,11 @@
       <c r="C29" s="1"/>
       <c r="D29" s="57"/>
       <c r="E29" s="52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" s="52"/>
       <c r="G29" s="62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
@@ -1672,7 +1675,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E32" s="72"/>
       <c r="F32" s="72"/>
@@ -1700,12 +1703,12 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E34" s="52"/>
       <c r="F34" s="53"/>
       <c r="G34" s="62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -1743,12 +1746,12 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="53"/>
       <c r="G37" s="62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -1799,7 +1802,7 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41" s="74"/>
       <c r="F41" s="75"/>
@@ -1828,11 +1831,11 @@
       <c r="C43" s="1"/>
       <c r="D43" s="48"/>
       <c r="E43" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H43" s="37"/>
       <c r="I43" s="37"/>
@@ -1858,11 +1861,11 @@
       <c r="C45" s="1"/>
       <c r="D45" s="48"/>
       <c r="E45" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F45" s="29"/>
       <c r="G45" s="76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
@@ -1887,12 +1890,12 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
       <c r="G47" s="76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
@@ -1930,7 +1933,7 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E50" s="83"/>
       <c r="F50" s="83"/>
@@ -1938,7 +1941,7 @@
       <c r="H50" s="83"/>
       <c r="I50" s="83"/>
       <c r="J50" s="84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K50" s="85"/>
     </row>
